--- a/natmiOut/OldD4/LR-pairs_lrc2p/Lif-Il6st.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Lif-Il6st.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,15 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Lif</t>
   </si>
   <si>
@@ -86,15 +95,6 @@
   </si>
   <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.16280936874981</v>
+        <v>2.867978666666667</v>
       </c>
       <c r="H2">
-        <v>2.16280936874981</v>
+        <v>8.603936000000001</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.5389395658779439</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.5730299235867837</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>41.6955923851178</v>
+        <v>54.43165466666667</v>
       </c>
       <c r="N2">
-        <v>41.6955923851178</v>
+        <v>163.294964</v>
       </c>
       <c r="O2">
-        <v>0.1916523227071156</v>
+        <v>0.2228930782800698</v>
       </c>
       <c r="P2">
-        <v>0.1916523227071156</v>
+        <v>0.2327227899462091</v>
       </c>
       <c r="Q2">
-        <v>90.17961784610601</v>
+        <v>156.1088243753671</v>
       </c>
       <c r="R2">
-        <v>90.17961784610601</v>
+        <v>1404.979419378304</v>
       </c>
       <c r="S2">
-        <v>0.1916523227071156</v>
+        <v>0.1201258988454594</v>
       </c>
       <c r="T2">
-        <v>0.1916523227071156</v>
+        <v>0.1333571225397793</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.16280936874981</v>
+        <v>2.867978666666667</v>
       </c>
       <c r="H3">
-        <v>2.16280936874981</v>
+        <v>8.603936000000001</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.5389395658779439</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.5730299235867837</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>117.123907374257</v>
+        <v>126.7095336666667</v>
       </c>
       <c r="N3">
-        <v>117.123907374257</v>
+        <v>380.128601</v>
       </c>
       <c r="O3">
-        <v>0.5383559174667427</v>
+        <v>0.5188649542136915</v>
       </c>
       <c r="P3">
-        <v>0.5383559174667427</v>
+        <v>0.541747194133123</v>
       </c>
       <c r="Q3">
-        <v>253.316684173628</v>
+        <v>363.4002394192818</v>
       </c>
       <c r="R3">
-        <v>253.316684173628</v>
+        <v>3270.602154773536</v>
       </c>
       <c r="S3">
-        <v>0.5383559174667427</v>
+        <v>0.2796368531732061</v>
       </c>
       <c r="T3">
-        <v>0.5383559174667427</v>
+        <v>0.310437353257458</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.16280936874981</v>
+        <v>2.867978666666667</v>
       </c>
       <c r="H4">
-        <v>2.16280936874981</v>
+        <v>8.603936000000001</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.5389395658779439</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.5730299235867837</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>14.1240259039828</v>
+        <v>17.491284</v>
       </c>
       <c r="N4">
-        <v>14.1240259039828</v>
+        <v>52.473852</v>
       </c>
       <c r="O4">
-        <v>0.06492058789983599</v>
+        <v>0.07162534664261168</v>
       </c>
       <c r="P4">
-        <v>0.06492058789983599</v>
+        <v>0.07478406521259567</v>
       </c>
       <c r="Q4">
-        <v>30.547575549599</v>
+        <v>50.16462936460801</v>
       </c>
       <c r="R4">
-        <v>30.547575549599</v>
+        <v>451.481664281472</v>
       </c>
       <c r="S4">
-        <v>0.06492058789983599</v>
+        <v>0.03860173322542639</v>
       </c>
       <c r="T4">
-        <v>0.06492058789983599</v>
+        <v>0.04285350717428275</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.16280936874981</v>
+        <v>2.867978666666667</v>
       </c>
       <c r="H5">
-        <v>2.16280936874981</v>
+        <v>8.603936000000001</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.5389395658779439</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.5730299235867837</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>14.5839805176537</v>
+        <v>14.62863866666667</v>
       </c>
       <c r="N5">
-        <v>14.5839805176537</v>
+        <v>43.88591599999999</v>
       </c>
       <c r="O5">
-        <v>0.0670347530911032</v>
+        <v>0.05990305316690945</v>
       </c>
       <c r="P5">
-        <v>0.0670347530911032</v>
+        <v>0.06254481192001105</v>
       </c>
       <c r="Q5">
-        <v>31.54236969724613</v>
+        <v>41.95462361837512</v>
       </c>
       <c r="R5">
-        <v>31.54236969724613</v>
+        <v>377.591612565376</v>
       </c>
       <c r="S5">
-        <v>0.0670347530911032</v>
+        <v>0.03228412546853757</v>
       </c>
       <c r="T5">
-        <v>0.0670347530911032</v>
+        <v>0.03584004879527369</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,991 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>2.867978666666667</v>
+      </c>
+      <c r="H6">
+        <v>8.603936000000001</v>
+      </c>
+      <c r="I6">
+        <v>0.5389395658779439</v>
+      </c>
+      <c r="J6">
+        <v>0.5730299235867837</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>30.9441155</v>
+      </c>
+      <c r="N6">
+        <v>61.888231</v>
+      </c>
+      <c r="O6">
+        <v>0.1267135676967176</v>
+      </c>
+      <c r="P6">
+        <v>0.08820113878806125</v>
+      </c>
+      <c r="Q6">
+        <v>88.74706311286936</v>
+      </c>
+      <c r="R6">
+        <v>532.482378677216</v>
+      </c>
+      <c r="S6">
+        <v>0.06829095516531443</v>
+      </c>
+      <c r="T6">
+        <v>0.05054189181999005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
         <v>21</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.3116546666666666</v>
+      </c>
+      <c r="H7">
+        <v>0.9349639999999999</v>
+      </c>
+      <c r="I7">
+        <v>0.05856495123528416</v>
+      </c>
+      <c r="J7">
+        <v>0.06226944847990426</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>54.43165466666667</v>
+      </c>
+      <c r="N7">
+        <v>163.294964</v>
+      </c>
+      <c r="O7">
+        <v>0.2228930782800698</v>
+      </c>
+      <c r="P7">
+        <v>0.2327227899462091</v>
+      </c>
+      <c r="Q7">
+        <v>16.96387919125511</v>
+      </c>
+      <c r="R7">
+        <v>152.674912721296</v>
+      </c>
+      <c r="S7">
+        <v>0.01305372226015466</v>
+      </c>
+      <c r="T7">
+        <v>0.01449151977865505</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.3116546666666666</v>
+      </c>
+      <c r="H8">
+        <v>0.9349639999999999</v>
+      </c>
+      <c r="I8">
+        <v>0.05856495123528416</v>
+      </c>
+      <c r="J8">
+        <v>0.06226944847990426</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>126.7095336666667</v>
+      </c>
+      <c r="N8">
+        <v>380.128601</v>
+      </c>
+      <c r="O8">
+        <v>0.5188649542136915</v>
+      </c>
+      <c r="P8">
+        <v>0.541747194133123</v>
+      </c>
+      <c r="Q8">
+        <v>39.48961747837377</v>
+      </c>
+      <c r="R8">
+        <v>355.4065573053639</v>
+      </c>
+      <c r="S8">
+        <v>0.03038730074122279</v>
+      </c>
+      <c r="T8">
+        <v>0.03373429899420519</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.3116546666666666</v>
+      </c>
+      <c r="H9">
+        <v>0.9349639999999999</v>
+      </c>
+      <c r="I9">
+        <v>0.05856495123528416</v>
+      </c>
+      <c r="J9">
+        <v>0.06226944847990426</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>17.491284</v>
+      </c>
+      <c r="N9">
+        <v>52.473852</v>
+      </c>
+      <c r="O9">
+        <v>0.07162534664261168</v>
+      </c>
+      <c r="P9">
+        <v>0.07478406521259567</v>
+      </c>
+      <c r="Q9">
+        <v>5.451240284591999</v>
+      </c>
+      <c r="R9">
+        <v>49.061162561328</v>
+      </c>
+      <c r="S9">
+        <v>0.004194734933334877</v>
+      </c>
+      <c r="T9">
+        <v>0.004656762495873527</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.3116546666666666</v>
+      </c>
+      <c r="H10">
+        <v>0.9349639999999999</v>
+      </c>
+      <c r="I10">
+        <v>0.05856495123528416</v>
+      </c>
+      <c r="J10">
+        <v>0.06226944847990426</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>14.62863866666667</v>
+      </c>
+      <c r="N10">
+        <v>43.88591599999999</v>
+      </c>
+      <c r="O10">
+        <v>0.05990305316690945</v>
+      </c>
+      <c r="P10">
+        <v>0.06254481192001105</v>
+      </c>
+      <c r="Q10">
+        <v>4.55908350744711</v>
+      </c>
+      <c r="R10">
+        <v>41.03175156702399</v>
+      </c>
+      <c r="S10">
+        <v>0.003508219387564686</v>
+      </c>
+      <c r="T10">
+        <v>0.00389463094353843</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.3116546666666666</v>
+      </c>
+      <c r="H11">
+        <v>0.9349639999999999</v>
+      </c>
+      <c r="I11">
+        <v>0.05856495123528416</v>
+      </c>
+      <c r="J11">
+        <v>0.06226944847990426</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>30.9441155</v>
+      </c>
+      <c r="N11">
+        <v>61.888231</v>
+      </c>
+      <c r="O11">
+        <v>0.1267135676967176</v>
+      </c>
+      <c r="P11">
+        <v>0.08820113878806125</v>
+      </c>
+      <c r="Q11">
+        <v>9.643878001447334</v>
+      </c>
+      <c r="R11">
+        <v>57.863268008684</v>
+      </c>
+      <c r="S11">
+        <v>0.007420973913007142</v>
+      </c>
+      <c r="T11">
+        <v>0.005492236267632065</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
         <v>26</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>2.16280936874981</v>
-      </c>
-      <c r="H6">
-        <v>2.16280936874981</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>30.0309966128071</v>
-      </c>
-      <c r="N6">
-        <v>30.0309966128071</v>
-      </c>
-      <c r="O6">
-        <v>0.1380364188352026</v>
-      </c>
-      <c r="P6">
-        <v>0.1380364188352026</v>
-      </c>
-      <c r="Q6">
-        <v>64.951320827073</v>
-      </c>
-      <c r="R6">
-        <v>64.951320827073</v>
-      </c>
-      <c r="S6">
-        <v>0.1380364188352026</v>
-      </c>
-      <c r="T6">
-        <v>0.1380364188352026</v>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>1.192134</v>
+      </c>
+      <c r="H12">
+        <v>3.576402</v>
+      </c>
+      <c r="I12">
+        <v>0.2240212550726796</v>
+      </c>
+      <c r="J12">
+        <v>0.2381916096046763</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>54.43165466666667</v>
+      </c>
+      <c r="N12">
+        <v>163.294964</v>
+      </c>
+      <c r="O12">
+        <v>0.2228930782800698</v>
+      </c>
+      <c r="P12">
+        <v>0.2327227899462091</v>
+      </c>
+      <c r="Q12">
+        <v>64.88982620439201</v>
+      </c>
+      <c r="R12">
+        <v>584.0084358395279</v>
+      </c>
+      <c r="S12">
+        <v>0.04993278714331424</v>
+      </c>
+      <c r="T12">
+        <v>0.05543261592897852</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>1.192134</v>
+      </c>
+      <c r="H13">
+        <v>3.576402</v>
+      </c>
+      <c r="I13">
+        <v>0.2240212550726796</v>
+      </c>
+      <c r="J13">
+        <v>0.2381916096046763</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>126.7095336666667</v>
+      </c>
+      <c r="N13">
+        <v>380.128601</v>
+      </c>
+      <c r="O13">
+        <v>0.5188649542136915</v>
+      </c>
+      <c r="P13">
+        <v>0.541747194133123</v>
+      </c>
+      <c r="Q13">
+        <v>151.054743208178</v>
+      </c>
+      <c r="R13">
+        <v>1359.492688873602</v>
+      </c>
+      <c r="S13">
+        <v>0.1162367782561796</v>
+      </c>
+      <c r="T13">
+        <v>0.1290396361693856</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>1.192134</v>
+      </c>
+      <c r="H14">
+        <v>3.576402</v>
+      </c>
+      <c r="I14">
+        <v>0.2240212550726796</v>
+      </c>
+      <c r="J14">
+        <v>0.2381916096046763</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>17.491284</v>
+      </c>
+      <c r="N14">
+        <v>52.473852</v>
+      </c>
+      <c r="O14">
+        <v>0.07162534664261168</v>
+      </c>
+      <c r="P14">
+        <v>0.07478406521259567</v>
+      </c>
+      <c r="Q14">
+        <v>20.851954360056</v>
+      </c>
+      <c r="R14">
+        <v>187.667589240504</v>
+      </c>
+      <c r="S14">
+        <v>0.0160456000498936</v>
+      </c>
+      <c r="T14">
+        <v>0.01781293686576924</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>1.192134</v>
+      </c>
+      <c r="H15">
+        <v>3.576402</v>
+      </c>
+      <c r="I15">
+        <v>0.2240212550726796</v>
+      </c>
+      <c r="J15">
+        <v>0.2381916096046763</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>14.62863866666667</v>
+      </c>
+      <c r="N15">
+        <v>43.88591599999999</v>
+      </c>
+      <c r="O15">
+        <v>0.05990305316690945</v>
+      </c>
+      <c r="P15">
+        <v>0.06254481192001105</v>
+      </c>
+      <c r="Q15">
+        <v>17.439297528248</v>
+      </c>
+      <c r="R15">
+        <v>156.953677754232</v>
+      </c>
+      <c r="S15">
+        <v>0.01341955715313651</v>
+      </c>
+      <c r="T15">
+        <v>0.01489764942364918</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>1.192134</v>
+      </c>
+      <c r="H16">
+        <v>3.576402</v>
+      </c>
+      <c r="I16">
+        <v>0.2240212550726796</v>
+      </c>
+      <c r="J16">
+        <v>0.2381916096046763</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>30.9441155</v>
+      </c>
+      <c r="N16">
+        <v>61.888231</v>
+      </c>
+      <c r="O16">
+        <v>0.1267135676967176</v>
+      </c>
+      <c r="P16">
+        <v>0.08820113878806125</v>
+      </c>
+      <c r="Q16">
+        <v>36.889532187477</v>
+      </c>
+      <c r="R16">
+        <v>221.337193124862</v>
+      </c>
+      <c r="S16">
+        <v>0.02838653247015561</v>
+      </c>
+      <c r="T16">
+        <v>0.02100877121689376</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.5</v>
+      </c>
+      <c r="G17">
+        <v>0.9497544999999999</v>
+      </c>
+      <c r="H17">
+        <v>1.899509</v>
+      </c>
+      <c r="I17">
+        <v>0.1784742278140924</v>
+      </c>
+      <c r="J17">
+        <v>0.1265090183286356</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>54.43165466666667</v>
+      </c>
+      <c r="N17">
+        <v>163.294964</v>
+      </c>
+      <c r="O17">
+        <v>0.2228930782800698</v>
+      </c>
+      <c r="P17">
+        <v>0.2327227899462091</v>
+      </c>
+      <c r="Q17">
+        <v>51.69670896211267</v>
+      </c>
+      <c r="R17">
+        <v>310.180253772676</v>
+      </c>
+      <c r="S17">
+        <v>0.0397806700311415</v>
+      </c>
+      <c r="T17">
+        <v>0.02944153169879618</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.5</v>
+      </c>
+      <c r="G18">
+        <v>0.9497544999999999</v>
+      </c>
+      <c r="H18">
+        <v>1.899509</v>
+      </c>
+      <c r="I18">
+        <v>0.1784742278140924</v>
+      </c>
+      <c r="J18">
+        <v>0.1265090183286356</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>126.7095336666667</v>
+      </c>
+      <c r="N18">
+        <v>380.128601</v>
+      </c>
+      <c r="O18">
+        <v>0.5188649542136915</v>
+      </c>
+      <c r="P18">
+        <v>0.541747194133123</v>
+      </c>
+      <c r="Q18">
+        <v>120.3429497928182</v>
+      </c>
+      <c r="R18">
+        <v>722.057698756909</v>
+      </c>
+      <c r="S18">
+        <v>0.09260402204308299</v>
+      </c>
+      <c r="T18">
+        <v>0.06853590571207417</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.5</v>
+      </c>
+      <c r="G19">
+        <v>0.9497544999999999</v>
+      </c>
+      <c r="H19">
+        <v>1.899509</v>
+      </c>
+      <c r="I19">
+        <v>0.1784742278140924</v>
+      </c>
+      <c r="J19">
+        <v>0.1265090183286356</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>17.491284</v>
+      </c>
+      <c r="N19">
+        <v>52.473852</v>
+      </c>
+      <c r="O19">
+        <v>0.07162534664261168</v>
+      </c>
+      <c r="P19">
+        <v>0.07478406521259567</v>
+      </c>
+      <c r="Q19">
+        <v>16.612425689778</v>
+      </c>
+      <c r="R19">
+        <v>99.674554138668</v>
+      </c>
+      <c r="S19">
+        <v>0.01278327843395681</v>
+      </c>
+      <c r="T19">
+        <v>0.009460858676670148</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.5</v>
+      </c>
+      <c r="G20">
+        <v>0.9497544999999999</v>
+      </c>
+      <c r="H20">
+        <v>1.899509</v>
+      </c>
+      <c r="I20">
+        <v>0.1784742278140924</v>
+      </c>
+      <c r="J20">
+        <v>0.1265090183286356</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>14.62863866666667</v>
+      </c>
+      <c r="N20">
+        <v>43.88591599999999</v>
+      </c>
+      <c r="O20">
+        <v>0.05990305316690945</v>
+      </c>
+      <c r="P20">
+        <v>0.06254481192001105</v>
+      </c>
+      <c r="Q20">
+        <v>13.89361540254066</v>
+      </c>
+      <c r="R20">
+        <v>83.36169241524398</v>
+      </c>
+      <c r="S20">
+        <v>0.01069115115767068</v>
+      </c>
+      <c r="T20">
+        <v>0.007912482757549745</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.5</v>
+      </c>
+      <c r="G21">
+        <v>0.9497544999999999</v>
+      </c>
+      <c r="H21">
+        <v>1.899509</v>
+      </c>
+      <c r="I21">
+        <v>0.1784742278140924</v>
+      </c>
+      <c r="J21">
+        <v>0.1265090183286356</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>30.9441155</v>
+      </c>
+      <c r="N21">
+        <v>61.888231</v>
+      </c>
+      <c r="O21">
+        <v>0.1267135676967176</v>
+      </c>
+      <c r="P21">
+        <v>0.08820113878806125</v>
+      </c>
+      <c r="Q21">
+        <v>29.38931294464475</v>
+      </c>
+      <c r="R21">
+        <v>117.557251778579</v>
+      </c>
+      <c r="S21">
+        <v>0.02261510614824039</v>
+      </c>
+      <c r="T21">
+        <v>0.01115823948354538</v>
       </c>
     </row>
   </sheetData>
